--- a/meta/stores/SampleStore.xlsx
+++ b/meta/stores/SampleStore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoPinia/meta/stores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE4367C-F192-1446-A745-E9F996A99CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FFEE5B-EA39-364D-99E0-7F90BCF69621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26600" yWindow="2780" windowWidth="25200" windowHeight="17540" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26000" yWindow="2780" windowWidth="25200" windowHeight="17540" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VueStore" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
   <si>
     <t>パッケージ</t>
   </si>
@@ -781,7 +781,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1315,32 +1315,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1349,38 +1391,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1392,8 +1427,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1426,17 +1461,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1446,12 +1480,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1465,80 +1499,89 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1960,8 +2003,8 @@
   </sheetPr>
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1969,14 +2012,14 @@
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="5" width="23.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="1" customWidth="1"/>
     <col min="10" max="10" width="33.33203125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19">
+    <row r="1" spans="1:10" ht="19">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -1984,17 +2027,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
@@ -2002,9 +2045,8 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="34"/>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
@@ -2014,12 +2056,11 @@
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="35"/>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -2027,59 +2068,53 @@
       <c r="C7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="35"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="91" t="s">
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="92"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="33"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="35"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="91" t="s">
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="82" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="33"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="35"/>
-    </row>
-    <row r="10" spans="1:11" ht="45" customHeight="1">
+    </row>
+    <row r="10" spans="1:10" ht="45" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="93" t="s">
+      <c r="C10" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="D10" s="92"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -2089,17 +2124,13 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-    </row>
-    <row r="12" spans="1:11" s="32" customFormat="1">
-      <c r="A12" s="62" t="s">
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="55" t="s">
         <v>14</v>
       </c>
       <c r="D12"/>
@@ -2107,12 +2138,12 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:11" s="32" customFormat="1">
-      <c r="A13" s="85" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="64" t="s">
+      <c r="B13" s="95"/>
+      <c r="C13" s="55" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
@@ -2122,1270 +2153,1227 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:11" s="37" customFormat="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="30" t="s">
+    <row r="14" spans="1:10">
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="44" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="47" t="s">
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="51"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="35"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="58"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="51"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="35"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="58"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="52"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="35"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="58"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22"/>
+      <c r="B22" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="15"/>
+      <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="87" t="s">
+      <c r="C24" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="87" t="s">
+      <c r="D24" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="87" t="s">
+      <c r="E24" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="89" t="s">
+      <c r="F24" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="87" t="s">
+      <c r="G24" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="87"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="88"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="15"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="19">
+      <c r="A26" s="18">
         <v>1</v>
       </c>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20" t="s">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20" t="s">
+      <c r="F26" s="19"/>
+      <c r="G26" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="15"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="19">
+      <c r="A27" s="18">
         <f>A26+1</f>
         <v>2</v>
       </c>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20" t="b">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20" t="s">
+      <c r="F27" s="19"/>
+      <c r="G27" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="15"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="19">
+      <c r="A28" s="18">
         <f t="shared" ref="A28:A31" si="0">A27+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20" t="s">
+      <c r="F28" s="19"/>
+      <c r="G28" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="15"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="19">
+      <c r="A29" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="79" t="s">
+      <c r="C29" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20" t="s">
+      <c r="D29" s="19"/>
+      <c r="E29" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20" t="s">
+      <c r="F29" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="15"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="14"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="19">
+      <c r="A30" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B30" s="72"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="15"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="19">
+      <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="15"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="15"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="14"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="44" t="s">
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="44"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="35"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="51"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="35"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="58"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="51"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="35"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="58"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="52"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="35"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="58"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13" t="s">
+      <c r="A42"/>
+      <c r="B42" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
       <c r="J43" s="6"/>
-      <c r="K43" s="15"/>
+      <c r="K43" s="14"/>
     </row>
     <row r="44" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A44" s="88" t="s">
+      <c r="A44" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="88" t="s">
+      <c r="B44" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="106" t="s">
+      <c r="C44" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="108"/>
-      <c r="E44" s="87" t="s">
+      <c r="D44" s="100"/>
+      <c r="E44" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="110"/>
-      <c r="G44" s="87" t="s">
+      <c r="F44" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="H44" s="87"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="17"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="88"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="15"/>
+      <c r="A45" s="96"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="14"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="19">
+      <c r="A46" s="18">
         <v>1</v>
       </c>
-      <c r="B46" s="70" t="s">
+      <c r="B46" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="100" t="s">
+      <c r="C46" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="103"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="20" t="s">
+      <c r="D46" s="80"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="15"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="14"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="19">
+      <c r="A47" s="18">
         <f>A46+1</f>
         <v>2</v>
       </c>
-      <c r="B47" s="70" t="s">
+      <c r="B47" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="100" t="s">
+      <c r="C47" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="103"/>
-      <c r="E47" s="20"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="19"/>
       <c r="F47" s="83"/>
-      <c r="G47" s="20" t="s">
+      <c r="G47" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="15"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="14"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="19">
+      <c r="A48" s="18">
         <f t="shared" ref="A48:A51" si="1">A47+1</f>
         <v>3</v>
       </c>
-      <c r="B48" s="71"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="20"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="19"/>
       <c r="F48" s="83"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="15"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="14"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="19">
+      <c r="A49" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B49" s="72"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="20"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="19"/>
       <c r="F49" s="83"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="15"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="14"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="19">
+      <c r="A50" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B50" s="72"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="20"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="19"/>
       <c r="F50" s="83"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="15"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="14"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="19">
+      <c r="A51" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B51" s="72"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="73"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="64"/>
       <c r="F51" s="84"/>
-      <c r="G51" s="73"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="76"/>
-      <c r="K51" s="15"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="66"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="14"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="23"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="15"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="14"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13" t="s">
+      <c r="A55"/>
+      <c r="B55" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
       <c r="J56" s="6"/>
-      <c r="K56" s="15"/>
+      <c r="K56" s="14"/>
     </row>
     <row r="57" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A57" s="88" t="s">
+      <c r="A57" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="88" t="s">
+      <c r="B57" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="106" t="s">
+      <c r="C57" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="108"/>
-      <c r="E57" s="87" t="s">
+      <c r="D57" s="100"/>
+      <c r="E57" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="F57" s="110"/>
-      <c r="G57" s="87" t="s">
+      <c r="F57" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="H57" s="87"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="17"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
       <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="88"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="109"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="111"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="15"/>
+      <c r="A58" s="96"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="88"/>
+      <c r="F58" s="98"/>
+      <c r="G58" s="88"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="14"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="19">
+      <c r="A59" s="18">
         <v>1</v>
       </c>
-      <c r="B59" s="70" t="s">
+      <c r="B59" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="100" t="s">
+      <c r="C59" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D59" s="103"/>
-      <c r="E59" s="20"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="19"/>
       <c r="F59" s="83"/>
-      <c r="G59" s="20" t="s">
+      <c r="G59" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="15"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="14"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="19">
+      <c r="A60" s="18">
         <f>A59+1</f>
         <v>2</v>
       </c>
-      <c r="B60" s="70" t="s">
+      <c r="B60" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="100" t="s">
+      <c r="C60" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="103"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="20" t="s">
+      <c r="D60" s="80"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="15"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="14"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="19">
+      <c r="A61" s="18">
         <f t="shared" ref="A61:A64" si="2">A60+1</f>
         <v>3</v>
       </c>
-      <c r="B61" s="71"/>
-      <c r="C61" s="101"/>
-      <c r="D61" s="103"/>
-      <c r="E61" s="20"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="19"/>
       <c r="F61" s="83"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="15"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="14"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="19">
+      <c r="A62" s="18">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B62" s="72"/>
-      <c r="C62" s="102"/>
-      <c r="D62" s="103"/>
-      <c r="E62" s="20"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="19"/>
       <c r="F62" s="83"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="15"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="14"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="19">
+      <c r="A63" s="18">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B63" s="72"/>
-      <c r="C63" s="102"/>
-      <c r="D63" s="103"/>
-      <c r="E63" s="20"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="19"/>
       <c r="F63" s="83"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="15"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="14"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="19">
+      <c r="A64" s="18">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B64" s="72"/>
-      <c r="C64" s="102"/>
-      <c r="D64" s="104"/>
-      <c r="E64" s="73"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="64"/>
       <c r="F64" s="84"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="76"/>
-      <c r="K64" s="15"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="14"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="23"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="105"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="99"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="15"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="14"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="44" t="s">
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G68" s="44"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="47" t="s">
+      <c r="A69" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="35"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="57"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="51"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="35"/>
+      <c r="A70" s="43"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="58"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="51"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="35"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="58"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="52"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="35"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="58"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13" t="s">
+      <c r="A75"/>
+      <c r="B75" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
       <c r="J76" s="6"/>
-      <c r="K76" s="15"/>
+      <c r="K76" s="14"/>
     </row>
     <row r="77" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A77" s="112" t="s">
+      <c r="A77" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="112" t="s">
+      <c r="B77" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="106" t="s">
+      <c r="C77" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="D77" s="110"/>
-      <c r="E77" s="89" t="s">
+      <c r="D77" s="103"/>
+      <c r="E77" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="F77" s="89" t="s">
+      <c r="F77" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="G77" s="106" t="s">
+      <c r="G77" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="H77" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="H77" s="96"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="17"/>
+      <c r="I77" s="86"/>
+      <c r="J77" s="86"/>
       <c r="K77" s="9"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="113"/>
-      <c r="B78" s="113"/>
-      <c r="C78" s="107"/>
-      <c r="D78" s="111"/>
-      <c r="E78" s="90"/>
-      <c r="F78" s="90"/>
-      <c r="G78" s="107"/>
-      <c r="H78" s="97"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="15"/>
+      <c r="A78" s="107"/>
+      <c r="B78" s="107"/>
+      <c r="C78" s="101"/>
+      <c r="D78" s="104"/>
+      <c r="E78" s="98"/>
+      <c r="F78" s="98"/>
+      <c r="G78" s="98"/>
+      <c r="H78" s="87"/>
+      <c r="I78" s="87"/>
+      <c r="J78" s="87"/>
+      <c r="K78" s="14"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="19">
+      <c r="A79" s="18">
         <v>1</v>
       </c>
-      <c r="B79" s="70" t="s">
+      <c r="B79" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="C79" s="100" t="s">
+      <c r="C79" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="D79" s="103"/>
-      <c r="E79" s="83"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="20" t="s">
+      <c r="D79" s="80"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="83"/>
+      <c r="H79" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="15"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="14"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="19">
+      <c r="A80" s="18">
         <f>A79+1</f>
         <v>2</v>
       </c>
-      <c r="B80" s="70" t="s">
+      <c r="B80" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="100" t="s">
+      <c r="C80" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="D80" s="103"/>
-      <c r="E80" s="83"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="20" t="s">
+      <c r="D80" s="80"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="83"/>
+      <c r="H80" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="H80" s="21"/>
-      <c r="I80" s="21"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="15"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="14"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="19">
+      <c r="A81" s="18">
         <f t="shared" ref="A81:A84" si="3">A80+1</f>
         <v>3</v>
       </c>
-      <c r="B81" s="71"/>
-      <c r="C81" s="101"/>
-      <c r="D81" s="103"/>
-      <c r="E81" s="103"/>
-      <c r="F81" s="68"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="15"/>
+      <c r="B81" s="62"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="80"/>
+      <c r="E81" s="80"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="83"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="14"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="19">
+      <c r="A82" s="18">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B82" s="72"/>
-      <c r="C82" s="102"/>
-      <c r="D82" s="103"/>
-      <c r="E82" s="83"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="15"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="80"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="83"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="14"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="19">
+      <c r="A83" s="18">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B83" s="72"/>
-      <c r="C83" s="102"/>
-      <c r="D83" s="103"/>
-      <c r="E83" s="83"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="15"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="80"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="83"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="14"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="19">
+      <c r="A84" s="18">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B84" s="72"/>
-      <c r="C84" s="102"/>
-      <c r="D84" s="104"/>
-      <c r="E84" s="84"/>
-      <c r="F84" s="74"/>
-      <c r="G84" s="73"/>
-      <c r="H84" s="75"/>
-      <c r="I84" s="75"/>
-      <c r="J84" s="76"/>
-      <c r="K84" s="15"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="79"/>
+      <c r="D84" s="81"/>
+      <c r="E84" s="75"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="84"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="67"/>
+      <c r="K84" s="14"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="23"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="105"/>
-      <c r="E85" s="99"/>
-      <c r="F85" s="69"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="15"/>
+      <c r="A85" s="22"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="82"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="85"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="14"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13" t="s">
+      <c r="A88"/>
+      <c r="B88" t="s">
         <v>67</v>
       </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
       <c r="J89" s="6"/>
-      <c r="K89" s="15"/>
+      <c r="K89" s="14"/>
     </row>
     <row r="90" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A90" s="88" t="s">
+      <c r="A90" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B90" s="88" t="s">
+      <c r="B90" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C90" s="106" t="s">
+      <c r="C90" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="108"/>
-      <c r="E90" s="98" t="s">
+      <c r="D90" s="100"/>
+      <c r="E90" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="F90" s="89" t="s">
+      <c r="F90" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="G90" s="87" t="s">
+      <c r="G90" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="H90" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="H90" s="87"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="17"/>
+      <c r="I90" s="86"/>
+      <c r="J90" s="86"/>
       <c r="K90" s="9"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="88"/>
-      <c r="B91" s="88"/>
-      <c r="C91" s="107"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="98"/>
-      <c r="F91" s="90"/>
-      <c r="G91" s="87"/>
+      <c r="A91" s="96"/>
+      <c r="B91" s="96"/>
+      <c r="C91" s="101"/>
+      <c r="D91" s="102"/>
+      <c r="E91" s="105"/>
+      <c r="F91" s="98"/>
+      <c r="G91" s="98"/>
       <c r="H91" s="87"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="15"/>
+      <c r="I91" s="87"/>
+      <c r="J91" s="87"/>
+      <c r="K91" s="14"/>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="19">
+      <c r="A92" s="18">
         <v>1</v>
       </c>
-      <c r="B92" s="70" t="s">
+      <c r="B92" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C92" s="100" t="s">
+      <c r="C92" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D92" s="103"/>
-      <c r="E92" s="83"/>
-      <c r="F92" s="68" t="s">
+      <c r="D92" s="80"/>
+      <c r="E92" s="74"/>
+      <c r="F92" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G92" s="20" t="s">
+      <c r="G92" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="15"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="27"/>
+      <c r="K92" s="14"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="19">
+      <c r="A93" s="18">
         <f>A92+1</f>
         <v>2</v>
       </c>
-      <c r="B93" s="70" t="s">
+      <c r="B93" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C93" s="100" t="s">
+      <c r="C93" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D93" s="103"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="20" t="s">
+      <c r="D93" s="80"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="59"/>
+      <c r="G93" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="28"/>
-      <c r="K93" s="15"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="14"/>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="19">
+      <c r="A94" s="18">
         <f t="shared" ref="A94:A97" si="4">A93+1</f>
         <v>3</v>
       </c>
-      <c r="B94" s="71"/>
-      <c r="C94" s="101"/>
-      <c r="D94" s="103"/>
-      <c r="E94" s="103"/>
-      <c r="F94" s="68"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="21"/>
-      <c r="J94" s="22"/>
-      <c r="K94" s="15"/>
+      <c r="B94" s="62"/>
+      <c r="C94" s="78"/>
+      <c r="D94" s="80"/>
+      <c r="E94" s="80"/>
+      <c r="F94" s="59"/>
+      <c r="G94" s="83"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="14"/>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="19">
+      <c r="A95" s="18">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B95" s="72"/>
-      <c r="C95" s="102"/>
-      <c r="D95" s="103"/>
-      <c r="E95" s="83"/>
-      <c r="F95" s="68"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="21"/>
-      <c r="I95" s="21"/>
-      <c r="J95" s="22"/>
-      <c r="K95" s="15"/>
+      <c r="B95" s="63"/>
+      <c r="C95" s="79"/>
+      <c r="D95" s="80"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="83"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="14"/>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="19">
+      <c r="A96" s="18">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B96" s="72"/>
-      <c r="C96" s="102"/>
-      <c r="D96" s="103"/>
-      <c r="E96" s="83"/>
-      <c r="F96" s="68"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="21"/>
-      <c r="I96" s="21"/>
-      <c r="J96" s="22"/>
-      <c r="K96" s="15"/>
+      <c r="B96" s="63"/>
+      <c r="C96" s="79"/>
+      <c r="D96" s="80"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="83"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="14"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="19">
+      <c r="A97" s="18">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B97" s="72"/>
-      <c r="C97" s="102"/>
-      <c r="D97" s="104"/>
-      <c r="E97" s="84"/>
-      <c r="F97" s="74"/>
-      <c r="G97" s="73"/>
-      <c r="H97" s="75"/>
-      <c r="I97" s="75"/>
-      <c r="J97" s="76"/>
-      <c r="K97" s="15"/>
+      <c r="B97" s="63"/>
+      <c r="C97" s="79"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="75"/>
+      <c r="F97" s="65"/>
+      <c r="G97" s="84"/>
+      <c r="H97" s="66"/>
+      <c r="I97" s="66"/>
+      <c r="J97" s="67"/>
+      <c r="K97" s="14"/>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="23"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="105"/>
-      <c r="E98" s="99"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="27"/>
-      <c r="K98" s="15"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="82"/>
+      <c r="E98" s="76"/>
+      <c r="F98" s="60"/>
+      <c r="G98" s="85"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="G77:H78"/>
+  <mergeCells count="37">
+    <mergeCell ref="H90:J91"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G90:G91"/>
     <mergeCell ref="A90:A91"/>
     <mergeCell ref="B90:B91"/>
     <mergeCell ref="C90:D91"/>
     <mergeCell ref="E90:E91"/>
     <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:H91"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:H45"/>
-    <mergeCell ref="G57:H58"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="A13:B13"/>
@@ -3396,6 +3384,22 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:J78"/>
+    <mergeCell ref="G44:H45"/>
+    <mergeCell ref="G57:H58"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="A77:A78"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
@@ -3405,7 +3409,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{CCFC1331-CEEF-574E-9BCC-37D38F486896}">
       <formula1>adjustFieldName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:F32 F92:F98 F79:F85" xr:uid="{18C70D90-9F1A-D84D-9F1C-490DE84E2C64}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:F32 F92:G98 F79:G85 F46:F52 F59:F65" xr:uid="{18C70D90-9F1A-D84D-9F1C-490DE84E2C64}">
       <formula1>yesNo</formula1>
     </dataValidation>
   </dataValidations>
@@ -3430,79 +3434,79 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="55" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="55" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="55" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="55" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="55" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="11" max="251" width="8.83203125" style="55" customWidth="1"/>
-    <col min="252" max="16384" width="10.83203125" style="55"/>
+    <col min="1" max="3" width="8.83203125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="47" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="47" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="47" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="11" max="251" width="8.83203125" style="47" customWidth="1"/>
+    <col min="252" max="16384" width="10.83203125" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="48" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="F4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="F5" s="60" t="s">
+      <c r="D5" s="52"/>
+      <c r="F5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="52" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="61"/>
+      <c r="B6" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
